--- a/PSO_HW6/results/best_objectives_v9_15.xlsx
+++ b/PSO_HW6/results/best_objectives_v9_15.xlsx
@@ -1,56 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\PycharmProjects\adaptive_optimization\PSO_HW6\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF0DE56-8259-4CE1-BA8D-0194328221A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2595" yWindow="-13335" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Seed 0 pop 15</t>
+    <t>Seed 0</t>
   </si>
   <si>
-    <t>Seed 1 pop 15</t>
+    <t>Seed 1</t>
   </si>
   <si>
-    <t>Seed 2 pop 15</t>
+    <t>Seed 2</t>
   </si>
   <si>
-    <t>Seed 3 pop 15</t>
+    <t>Seed 3</t>
   </si>
   <si>
-    <t>Seed 4 pop 15</t>
+    <t>Seed 4</t>
   </si>
   <si>
-    <t>Seed 5 pop 15</t>
+    <t>Seed 5</t>
   </si>
   <si>
-    <t>Seed 6 pop 15</t>
+    <t>Seed 6</t>
   </si>
   <si>
-    <t>Seed 7 pop 15</t>
+    <t>Seed 7</t>
   </si>
   <si>
-    <t>Seed 8 pop 15</t>
+    <t>Seed 8</t>
   </si>
   <si>
-    <t>Seed 9 pop 15</t>
+    <t>Seed 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +119,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +205,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +257,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,14 +450,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,248 +491,248 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-486.1692226798471</v>
+        <v>-486.16922267984711</v>
       </c>
       <c r="B2">
-        <v>-675.2050284236312</v>
+        <v>-675.20502842363123</v>
       </c>
       <c r="C2">
-        <v>-376.418162903209</v>
+        <v>-376.41816290320901</v>
       </c>
       <c r="D2">
-        <v>-491.0993787077093</v>
+        <v>-491.09937870770932</v>
       </c>
       <c r="E2">
-        <v>-694.374823137831</v>
+        <v>-694.37482313783096</v>
       </c>
       <c r="F2">
-        <v>-465.8246913390051</v>
+        <v>-465.82469133900508</v>
       </c>
       <c r="G2">
-        <v>-530.6216523140286</v>
+        <v>-530.62165231402855</v>
       </c>
       <c r="H2">
-        <v>-664.0306631167257</v>
+        <v>-664.03066311672569</v>
       </c>
       <c r="I2">
-        <v>-512.3949941651167</v>
+        <v>-512.39499416511671</v>
       </c>
       <c r="J2">
-        <v>-597.0917715923359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>-597.09177159233593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-486.6722572954133</v>
+        <v>-486.67225729541332</v>
       </c>
       <c r="B3">
-        <v>-675.2050284236312</v>
+        <v>-675.20502842363123</v>
       </c>
       <c r="C3">
-        <v>-404.0835439492417</v>
+        <v>-404.08354394924169</v>
       </c>
       <c r="D3">
-        <v>-491.0993787077093</v>
+        <v>-491.09937870770932</v>
       </c>
       <c r="E3">
-        <v>-761.7343198398999</v>
+        <v>-761.73431983989985</v>
       </c>
       <c r="F3">
         <v>-650.7119861029347</v>
       </c>
       <c r="G3">
-        <v>-530.6216523140286</v>
+        <v>-530.62165231402855</v>
       </c>
       <c r="H3">
-        <v>-664.0306631167257</v>
+        <v>-664.03066311672569</v>
       </c>
       <c r="I3">
-        <v>-544.3402022351916</v>
+        <v>-544.34020223519155</v>
       </c>
       <c r="J3">
-        <v>-599.1428933333356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>-599.14289333333556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-486.6722572954133</v>
+        <v>-486.67225729541332</v>
       </c>
       <c r="B4">
-        <v>-824.9633974794817</v>
+        <v>-824.96339747948173</v>
       </c>
       <c r="C4">
-        <v>-468.416144640461</v>
+        <v>-468.41614464046103</v>
       </c>
       <c r="D4">
-        <v>-491.0993787077093</v>
+        <v>-491.09937870770932</v>
       </c>
       <c r="E4">
-        <v>-858.0808209792229</v>
+        <v>-858.08082097922295</v>
       </c>
       <c r="F4">
         <v>-650.7119861029347</v>
       </c>
       <c r="G4">
-        <v>-530.6216523140286</v>
+        <v>-530.62165231402855</v>
       </c>
       <c r="H4">
-        <v>-664.0306631167257</v>
+        <v>-664.03066311672569</v>
       </c>
       <c r="I4">
-        <v>-555.2009475311015</v>
+        <v>-555.20094753110152</v>
       </c>
       <c r="J4">
         <v>-797.8848751484577</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-540.2510886861465</v>
+        <v>-540.25108868614655</v>
       </c>
       <c r="B5">
-        <v>-856.2597504128578</v>
+        <v>-856.25975041285778</v>
       </c>
       <c r="C5">
-        <v>-882.0177989872269</v>
+        <v>-882.01779898722691</v>
       </c>
       <c r="D5">
-        <v>-499.5491337893595</v>
+        <v>-499.54913378935947</v>
       </c>
       <c r="E5">
-        <v>-879.9060748645924</v>
+        <v>-879.90607486459237</v>
       </c>
       <c r="F5">
         <v>-650.7119861029347</v>
       </c>
       <c r="G5">
-        <v>-530.6216523140286</v>
+        <v>-530.62165231402855</v>
       </c>
       <c r="H5">
-        <v>-664.0306631167257</v>
+        <v>-664.03066311672569</v>
       </c>
       <c r="I5">
-        <v>-559.2386148055962</v>
+        <v>-559.23861480559617</v>
       </c>
       <c r="J5">
         <v>-797.8848751484577</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-540.2510886861465</v>
+        <v>-540.25108868614655</v>
       </c>
       <c r="B6">
-        <v>-856.2597504128578</v>
+        <v>-856.25975041285778</v>
       </c>
       <c r="C6">
-        <v>-882.0177989872269</v>
+        <v>-882.01779898722691</v>
       </c>
       <c r="D6">
-        <v>-510.3871905278047</v>
+        <v>-510.38719052780471</v>
       </c>
       <c r="E6">
-        <v>-879.9060748645924</v>
+        <v>-879.90607486459237</v>
       </c>
       <c r="F6">
         <v>-650.7119861029347</v>
       </c>
       <c r="G6">
-        <v>-531.5000991828279</v>
+        <v>-531.50009918282785</v>
       </c>
       <c r="H6">
-        <v>-664.0306631167257</v>
+        <v>-664.03066311672569</v>
       </c>
       <c r="I6">
-        <v>-560.8973592315849</v>
+        <v>-560.89735923158491</v>
       </c>
       <c r="J6">
-        <v>-852.1334213919769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-852.13342139197687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-557.1122250362761</v>
+        <v>-557.11222503627607</v>
       </c>
       <c r="B7">
-        <v>-856.2597504128578</v>
+        <v>-856.25975041285778</v>
       </c>
       <c r="C7">
-        <v>-882.0177989872269</v>
+        <v>-882.01779898722691</v>
       </c>
       <c r="D7">
-        <v>-510.3871905278047</v>
+        <v>-510.38719052780471</v>
       </c>
       <c r="E7">
-        <v>-879.9060748645924</v>
+        <v>-879.90607486459237</v>
       </c>
       <c r="F7">
-        <v>-657.5904844397402</v>
+        <v>-657.59048443974018</v>
       </c>
       <c r="G7">
-        <v>-547.9672316362078</v>
+        <v>-547.96723163620777</v>
       </c>
       <c r="H7">
-        <v>-687.3120482875142</v>
+        <v>-687.31204828751424</v>
       </c>
       <c r="I7">
-        <v>-561.64005167011</v>
+        <v>-561.64005167010998</v>
       </c>
       <c r="J7">
-        <v>-866.4014067007678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>-866.40140670076778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>-561.5057928614042</v>
+        <v>-561.50579286140419</v>
       </c>
       <c r="B8">
-        <v>-858.5469930856875</v>
+        <v>-858.54699308568752</v>
       </c>
       <c r="C8">
-        <v>-882.3350155960142</v>
+        <v>-882.33501559601416</v>
       </c>
       <c r="D8">
-        <v>-812.1112253724398</v>
+        <v>-812.11122537243978</v>
       </c>
       <c r="E8">
-        <v>-879.9515049386287</v>
+        <v>-879.95150493862866</v>
       </c>
       <c r="F8">
-        <v>-657.5904844397402</v>
+        <v>-657.59048443974018</v>
       </c>
       <c r="G8">
         <v>-614.2954160299804</v>
       </c>
       <c r="H8">
-        <v>-687.3120482875142</v>
+        <v>-687.31204828751424</v>
       </c>
       <c r="I8">
-        <v>-562.494407228594</v>
+        <v>-562.49440722859401</v>
       </c>
       <c r="J8">
-        <v>-866.4014067007678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>-866.40140670076778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>-802.7563198145758</v>
+        <v>-802.75631981457582</v>
       </c>
       <c r="B9">
-        <v>-858.5469930856875</v>
+        <v>-858.54699308568752</v>
       </c>
       <c r="C9">
-        <v>-882.3350155960142</v>
+        <v>-882.33501559601416</v>
       </c>
       <c r="D9">
-        <v>-812.1112253724398</v>
+        <v>-812.11122537243978</v>
       </c>
       <c r="E9">
-        <v>-879.9515049386287</v>
+        <v>-879.95150493862866</v>
       </c>
       <c r="F9">
-        <v>-657.9969389247062</v>
+        <v>-657.99693892470623</v>
       </c>
       <c r="G9">
         <v>-614.2954160299804</v>
@@ -692,27 +744,27 @@
         <v>-564.1345687434025</v>
       </c>
       <c r="J9">
-        <v>-866.4014067007678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>-866.40140670076778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>-810.379409338457</v>
+        <v>-810.37940933845698</v>
       </c>
       <c r="B10">
-        <v>-858.5469930856875</v>
+        <v>-858.54699308568752</v>
       </c>
       <c r="C10">
-        <v>-882.3350155960142</v>
+        <v>-882.33501559601416</v>
       </c>
       <c r="D10">
         <v>-821.1857756556135</v>
       </c>
       <c r="E10">
-        <v>-883.1012083469486</v>
+        <v>-883.10120834694862</v>
       </c>
       <c r="F10">
-        <v>-657.9969389247062</v>
+        <v>-657.99693892470623</v>
       </c>
       <c r="G10">
         <v>-614.2954160299804</v>
@@ -721,21 +773,21 @@
         <v>-708.0198699294433</v>
       </c>
       <c r="I10">
-        <v>-564.2431629731901</v>
+        <v>-564.24316297319012</v>
       </c>
       <c r="J10">
-        <v>-884.4234064282998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>-884.42340642829981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>-810.379409338457</v>
+        <v>-810.37940933845698</v>
       </c>
       <c r="B11">
-        <v>-884.7719908346381</v>
+        <v>-884.77199083463813</v>
       </c>
       <c r="C11">
-        <v>-883.3123861755857</v>
+        <v>-883.31238617558574</v>
       </c>
       <c r="D11">
         <v>-821.1857756556135</v>
@@ -747,612 +799,612 @@
         <v>-658.2533935759418</v>
       </c>
       <c r="G11">
-        <v>-700.7076112960651</v>
+        <v>-700.70761129606512</v>
       </c>
       <c r="H11">
         <v>-708.0198699294433</v>
       </c>
       <c r="I11">
-        <v>-565.3185093207849</v>
+        <v>-565.31850932078487</v>
       </c>
       <c r="J11">
-        <v>-888.0738253826055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>-888.07382538260549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>-813.5039949270496</v>
+        <v>-813.50399492704958</v>
       </c>
       <c r="B12">
-        <v>-884.7719908346381</v>
+        <v>-884.77199083463813</v>
       </c>
       <c r="C12">
-        <v>-892.1557437376994</v>
+        <v>-892.15574373769937</v>
       </c>
       <c r="D12">
         <v>-821.1857756556135</v>
       </c>
       <c r="E12">
-        <v>-886.8708872579932</v>
+        <v>-886.87088725799322</v>
       </c>
       <c r="F12">
         <v>-658.2533935759418</v>
       </c>
       <c r="G12">
-        <v>-768.4708490681986</v>
+        <v>-768.47084906819862</v>
       </c>
       <c r="H12">
         <v>-708.0198699294433</v>
       </c>
       <c r="I12">
-        <v>-565.3185093207849</v>
+        <v>-565.31850932078487</v>
       </c>
       <c r="J12">
-        <v>-888.0798887777826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>-888.07988877778257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>-819.0775679520013</v>
+        <v>-819.07756795200135</v>
       </c>
       <c r="B13">
-        <v>-888.7600402320147</v>
+        <v>-888.76004023201472</v>
       </c>
       <c r="C13">
-        <v>-892.1557437376994</v>
+        <v>-892.15574373769937</v>
       </c>
       <c r="D13">
         <v>-821.1857756556135</v>
       </c>
       <c r="E13">
-        <v>-888.8983314928046</v>
+        <v>-888.89833149280457</v>
       </c>
       <c r="F13">
         <v>-658.2533935759418</v>
       </c>
       <c r="G13">
-        <v>-821.0303755250886</v>
+        <v>-821.03037552508863</v>
       </c>
       <c r="H13">
         <v>-708.0198699294433</v>
       </c>
       <c r="I13">
-        <v>-565.3922601034923</v>
+        <v>-565.39226010349228</v>
       </c>
       <c r="J13">
-        <v>-888.0798887777826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>-888.07988877778257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>-819.0775679520013</v>
+        <v>-819.07756795200135</v>
       </c>
       <c r="B14">
-        <v>-888.7600402320147</v>
+        <v>-888.76004023201472</v>
       </c>
       <c r="C14">
-        <v>-893.6632609601012</v>
+        <v>-893.66326096010118</v>
       </c>
       <c r="D14">
         <v>-821.1857756556135</v>
       </c>
       <c r="E14">
-        <v>-888.8983314928046</v>
+        <v>-888.89833149280457</v>
       </c>
       <c r="F14">
         <v>-658.2533935759418</v>
       </c>
       <c r="G14">
-        <v>-821.051297211369</v>
+        <v>-821.05129721136905</v>
       </c>
       <c r="H14">
-        <v>-715.2091652922339</v>
+        <v>-715.20916529223393</v>
       </c>
       <c r="I14">
-        <v>-565.9647744566101</v>
+        <v>-565.96477445661014</v>
       </c>
       <c r="J14">
-        <v>-888.7225749818192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>-888.72257498181921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>-821.1070984573431</v>
+        <v>-821.10709845734311</v>
       </c>
       <c r="B15">
-        <v>-888.7600402320147</v>
+        <v>-888.76004023201472</v>
       </c>
       <c r="C15">
-        <v>-893.6632609601012</v>
+        <v>-893.66326096010118</v>
       </c>
       <c r="D15">
-        <v>-821.1951643348855</v>
+        <v>-821.19516433488548</v>
       </c>
       <c r="E15">
-        <v>-888.8983314928046</v>
+        <v>-888.89833149280457</v>
       </c>
       <c r="F15">
-        <v>-658.2607257774762</v>
+        <v>-658.26072577747618</v>
       </c>
       <c r="G15">
-        <v>-821.051297211369</v>
+        <v>-821.05129721136905</v>
       </c>
       <c r="H15">
-        <v>-715.2091652922339</v>
+        <v>-715.20916529223393</v>
       </c>
       <c r="I15">
-        <v>-565.9647744566101</v>
+        <v>-565.96477445661014</v>
       </c>
       <c r="J15">
-        <v>-888.7225749818192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>-888.72257498181921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>-821.1894208199624</v>
+        <v>-821.18942081996238</v>
       </c>
       <c r="B16">
-        <v>-888.7600402320147</v>
+        <v>-888.76004023201472</v>
       </c>
       <c r="C16">
-        <v>-893.6632609601012</v>
+        <v>-893.66326096010118</v>
       </c>
       <c r="D16">
-        <v>-821.1951643348855</v>
+        <v>-821.19516433488548</v>
       </c>
       <c r="E16">
-        <v>-888.8983314928046</v>
+        <v>-888.89833149280457</v>
       </c>
       <c r="F16">
-        <v>-658.2607257774762</v>
+        <v>-658.26072577747618</v>
       </c>
       <c r="G16">
-        <v>-821.051297211369</v>
+        <v>-821.05129721136905</v>
       </c>
       <c r="H16">
-        <v>-715.2091652922339</v>
+        <v>-715.20916529223393</v>
       </c>
       <c r="I16">
-        <v>-565.9698204514492</v>
+        <v>-565.96982045144921</v>
       </c>
       <c r="J16">
-        <v>-888.789112395217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>-888.78911239521699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>-821.1894208199624</v>
+        <v>-821.18942081996238</v>
       </c>
       <c r="B17">
-        <v>-888.7600402320147</v>
+        <v>-888.76004023201472</v>
       </c>
       <c r="C17">
-        <v>-893.6632609601012</v>
+        <v>-893.66326096010118</v>
       </c>
       <c r="D17">
-        <v>-821.1959777740266</v>
+        <v>-821.19597777402657</v>
       </c>
       <c r="E17">
-        <v>-888.9315571339707</v>
+        <v>-888.93155713397073</v>
       </c>
       <c r="F17">
-        <v>-658.2607257774762</v>
+        <v>-658.26072577747618</v>
       </c>
       <c r="G17">
-        <v>-821.051297211369</v>
+        <v>-821.05129721136905</v>
       </c>
       <c r="H17">
-        <v>-715.2091652922339</v>
+        <v>-715.20916529223393</v>
       </c>
       <c r="I17">
-        <v>-565.9837787957653</v>
+        <v>-565.98377879576526</v>
       </c>
       <c r="J17">
-        <v>-888.789112395217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>-888.78911239521699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>-821.1894208199624</v>
+        <v>-821.18942081996238</v>
       </c>
       <c r="B18">
-        <v>-888.7600402320147</v>
+        <v>-888.76004023201472</v>
       </c>
       <c r="C18">
-        <v>-894.3873624001683</v>
+        <v>-894.38736240016829</v>
       </c>
       <c r="D18">
-        <v>-821.1959777740266</v>
+        <v>-821.19597777402657</v>
       </c>
       <c r="E18">
-        <v>-888.9484487242378</v>
+        <v>-888.94844872423778</v>
       </c>
       <c r="F18">
-        <v>-658.2607926005523</v>
+        <v>-658.26079260055235</v>
       </c>
       <c r="G18">
-        <v>-821.051297211369</v>
+        <v>-821.05129721136905</v>
       </c>
       <c r="H18">
-        <v>-715.3215308131823</v>
+        <v>-715.32153081318233</v>
       </c>
       <c r="I18">
-        <v>-565.9960950818164</v>
+        <v>-565.99609508181641</v>
       </c>
       <c r="J18">
-        <v>-888.9352049287691</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>-888.93520492876905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>-821.1894208199624</v>
+        <v>-821.18942081996238</v>
       </c>
       <c r="B19">
-        <v>-888.900976456669</v>
+        <v>-888.90097645666901</v>
       </c>
       <c r="C19">
-        <v>-894.3873624001683</v>
+        <v>-894.38736240016829</v>
       </c>
       <c r="D19">
-        <v>-821.1959777740266</v>
+        <v>-821.19597777402657</v>
       </c>
       <c r="E19">
-        <v>-888.9484487242378</v>
+        <v>-888.94844872423778</v>
       </c>
       <c r="F19">
-        <v>-658.2607926005523</v>
+        <v>-658.26079260055235</v>
       </c>
       <c r="G19">
-        <v>-821.1802145136667</v>
+        <v>-821.18021451366667</v>
       </c>
       <c r="H19">
-        <v>-715.3215308131823</v>
+        <v>-715.32153081318233</v>
       </c>
       <c r="I19">
-        <v>-565.9960950818164</v>
+        <v>-565.99609508181641</v>
       </c>
       <c r="J19">
-        <v>-888.9352049287691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>-888.93520492876905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>-821.1894208199624</v>
+        <v>-821.18942081996238</v>
       </c>
       <c r="B20">
-        <v>-888.9306469883368</v>
+        <v>-888.93064698833678</v>
       </c>
       <c r="C20">
-        <v>-894.450835327742</v>
+        <v>-894.45083532774197</v>
       </c>
       <c r="D20">
-        <v>-821.196397797833</v>
+        <v>-821.19639779783301</v>
       </c>
       <c r="E20">
-        <v>-888.9484487242378</v>
+        <v>-888.94844872423778</v>
       </c>
       <c r="F20">
-        <v>-658.2611540140823</v>
+        <v>-658.26115401408231</v>
       </c>
       <c r="G20">
-        <v>-821.1902324167347</v>
+        <v>-821.19023241673472</v>
       </c>
       <c r="H20">
-        <v>-715.3215308131823</v>
+        <v>-715.32153081318233</v>
       </c>
       <c r="I20">
-        <v>-565.9960950818164</v>
+        <v>-565.99609508181641</v>
       </c>
       <c r="J20">
-        <v>-888.9352049287691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>-888.93520492876905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>-821.1894208199624</v>
+        <v>-821.18942081996238</v>
       </c>
       <c r="B21">
-        <v>-888.9306469883368</v>
+        <v>-888.93064698833678</v>
       </c>
       <c r="C21">
-        <v>-894.5490890906685</v>
+        <v>-894.54908909066853</v>
       </c>
       <c r="D21">
-        <v>-821.196397797833</v>
+        <v>-821.19639779783301</v>
       </c>
       <c r="E21">
-        <v>-888.9484487242378</v>
+        <v>-888.94844872423778</v>
       </c>
       <c r="F21">
-        <v>-658.2611540140823</v>
+        <v>-658.26115401408231</v>
       </c>
       <c r="G21">
-        <v>-821.1902324167347</v>
+        <v>-821.19023241673472</v>
       </c>
       <c r="H21">
-        <v>-715.3215308131823</v>
+        <v>-715.32153081318233</v>
       </c>
       <c r="I21">
-        <v>-565.9960950818164</v>
+        <v>-565.99609508181641</v>
       </c>
       <c r="J21">
-        <v>-888.9352049287691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>-888.93520492876905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>-821.1894208199624</v>
+        <v>-821.18942081996238</v>
       </c>
       <c r="B22">
-        <v>-888.9306469883368</v>
+        <v>-888.93064698833678</v>
       </c>
       <c r="C22">
-        <v>-894.5668658914201</v>
+        <v>-894.56686589142009</v>
       </c>
       <c r="D22">
-        <v>-821.1964608881785</v>
+        <v>-821.19646088817854</v>
       </c>
       <c r="E22">
-        <v>-888.9484487242378</v>
+        <v>-888.94844872423778</v>
       </c>
       <c r="F22">
-        <v>-658.2611540140823</v>
+        <v>-658.26115401408231</v>
       </c>
       <c r="G22">
-        <v>-821.1914029011223</v>
+        <v>-821.19140290112227</v>
       </c>
       <c r="H22">
-        <v>-715.3215308131823</v>
+        <v>-715.32153081318233</v>
       </c>
       <c r="I22">
-        <v>-565.9960950818164</v>
+        <v>-565.99609508181641</v>
       </c>
       <c r="J22">
-        <v>-888.9352049287691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>-888.93520492876905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>-821.1894208199624</v>
+        <v>-821.18942081996238</v>
       </c>
       <c r="B23">
-        <v>-888.9306469883368</v>
+        <v>-888.93064698833678</v>
       </c>
       <c r="C23">
-        <v>-894.5689698345043</v>
+        <v>-894.56896983450429</v>
       </c>
       <c r="D23">
-        <v>-821.1964608881785</v>
+        <v>-821.19646088817854</v>
       </c>
       <c r="E23">
-        <v>-888.9490469572701</v>
+        <v>-888.94904695727007</v>
       </c>
       <c r="F23">
-        <v>-658.2611540140823</v>
+        <v>-658.26115401408231</v>
       </c>
       <c r="G23">
-        <v>-821.1914029011223</v>
+        <v>-821.19140290112227</v>
       </c>
       <c r="H23">
-        <v>-715.3215308131823</v>
+        <v>-715.32153081318233</v>
       </c>
       <c r="I23">
-        <v>-565.9971445724639</v>
+        <v>-565.99714457246387</v>
       </c>
       <c r="J23">
-        <v>-888.9429271524921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>-888.94292715249208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>-821.1953340393403</v>
+        <v>-821.19533403934031</v>
       </c>
       <c r="B24">
-        <v>-888.9478046407507</v>
+        <v>-888.94780464075075</v>
       </c>
       <c r="C24">
-        <v>-894.5689698345043</v>
+        <v>-894.56896983450429</v>
       </c>
       <c r="D24">
-        <v>-821.1964608881785</v>
+        <v>-821.19646088817854</v>
       </c>
       <c r="E24">
-        <v>-888.9490469572701</v>
+        <v>-888.94904695727007</v>
       </c>
       <c r="F24">
-        <v>-658.2611540140823</v>
+        <v>-658.26115401408231</v>
       </c>
       <c r="G24">
         <v>-821.1964338991952</v>
       </c>
       <c r="H24">
-        <v>-715.9288621042124</v>
+        <v>-715.92886210421239</v>
       </c>
       <c r="I24">
-        <v>-565.9976950185978</v>
+        <v>-565.99769501859782</v>
       </c>
       <c r="J24">
-        <v>-888.9429271524921</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>-888.94292715249208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>-821.1964610261143</v>
+        <v>-821.19646102611432</v>
       </c>
       <c r="B25">
-        <v>-888.9484632398435</v>
+        <v>-888.94846323984348</v>
       </c>
       <c r="C25">
-        <v>-894.5741165902054</v>
+        <v>-894.57411659020545</v>
       </c>
       <c r="D25">
-        <v>-821.1964608881785</v>
+        <v>-821.19646088817854</v>
       </c>
       <c r="E25">
-        <v>-888.9490469572701</v>
+        <v>-888.94904695727007</v>
       </c>
       <c r="F25">
-        <v>-658.2612102104786</v>
+        <v>-658.26121021047857</v>
       </c>
       <c r="G25">
         <v>-821.1964338991952</v>
       </c>
       <c r="H25">
-        <v>-716.461428219448</v>
+        <v>-716.46142821944795</v>
       </c>
       <c r="I25">
-        <v>-565.9976985067353</v>
+        <v>-565.99769850673533</v>
       </c>
       <c r="J25">
-        <v>-888.943011466329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>-888.94301146632904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>-821.1964610261143</v>
+        <v>-821.19646102611432</v>
       </c>
       <c r="B26">
-        <v>-888.9484632398435</v>
+        <v>-888.94846323984348</v>
       </c>
       <c r="C26">
-        <v>-894.5748807518128</v>
+        <v>-894.57488075181277</v>
       </c>
       <c r="D26">
-        <v>-821.1964608881785</v>
+        <v>-821.19646088817854</v>
       </c>
       <c r="E26">
-        <v>-888.9490469572701</v>
+        <v>-888.94904695727007</v>
       </c>
       <c r="F26">
-        <v>-658.2612102104786</v>
+        <v>-658.26121021047857</v>
       </c>
       <c r="G26">
         <v>-821.1964338991952</v>
       </c>
       <c r="H26">
-        <v>-716.5445090376654</v>
+        <v>-716.54450903766542</v>
       </c>
       <c r="I26">
         <v>-565.9977804267412</v>
       </c>
       <c r="J26">
-        <v>-888.9482664594316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>-888.94826645943158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>-821.1964610261143</v>
+        <v>-821.19646102611432</v>
       </c>
       <c r="B27">
-        <v>-888.9484632398435</v>
+        <v>-888.94846323984348</v>
       </c>
       <c r="C27">
-        <v>-894.5748807518128</v>
+        <v>-894.57488075181277</v>
       </c>
       <c r="D27">
-        <v>-821.1964608881785</v>
+        <v>-821.19646088817854</v>
       </c>
       <c r="E27">
-        <v>-888.9490895445865</v>
+        <v>-888.94908954458651</v>
       </c>
       <c r="F27">
-        <v>-658.2612102104786</v>
+        <v>-658.26121021047857</v>
       </c>
       <c r="G27">
         <v>-821.1964338991952</v>
       </c>
       <c r="H27">
-        <v>-716.613273382265</v>
+        <v>-716.61327338226499</v>
       </c>
       <c r="I27">
         <v>-565.9977804267412</v>
       </c>
       <c r="J27">
-        <v>-888.9487461030292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>-888.94874610302918</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>-821.1964610261143</v>
+        <v>-821.19646102611432</v>
       </c>
       <c r="B28">
-        <v>-888.9489199473744</v>
+        <v>-888.94891994737441</v>
       </c>
       <c r="C28">
-        <v>-894.5784253295806</v>
+        <v>-894.57842532958057</v>
       </c>
       <c r="D28">
-        <v>-821.1964608881785</v>
+        <v>-821.19646088817854</v>
       </c>
       <c r="E28">
-        <v>-888.9491185315615</v>
+        <v>-888.94911853156145</v>
       </c>
       <c r="F28">
-        <v>-658.2612102364934</v>
+        <v>-658.26121023649341</v>
       </c>
       <c r="G28">
         <v>-821.1964338991952</v>
       </c>
       <c r="H28">
-        <v>-716.6231790619693</v>
+        <v>-716.62317906196927</v>
       </c>
       <c r="I28">
         <v>-565.9977804267412</v>
       </c>
       <c r="J28">
-        <v>-888.9488867670127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>-888.94888676701271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>-821.1964610261143</v>
+        <v>-821.19646102611432</v>
       </c>
       <c r="B29">
-        <v>-888.9489199473744</v>
+        <v>-888.94891994737441</v>
       </c>
       <c r="C29">
-        <v>-894.5784253295806</v>
+        <v>-894.57842532958057</v>
       </c>
       <c r="D29">
         <v>-821.1964610620995</v>
       </c>
       <c r="E29">
-        <v>-888.9491185315615</v>
+        <v>-888.94911853156145</v>
       </c>
       <c r="F29">
-        <v>-658.2612102364934</v>
+        <v>-658.26121023649341</v>
       </c>
       <c r="G29">
         <v>-821.1964338991952</v>
       </c>
       <c r="H29">
-        <v>-716.623974565613</v>
+        <v>-716.62397456561303</v>
       </c>
       <c r="I29">
         <v>-565.9977804267412</v>
       </c>
       <c r="J29">
-        <v>-888.9490912709841</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>-888.94909127098413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>-821.1964610261143</v>
+        <v>-821.19646102611432</v>
       </c>
       <c r="B30">
-        <v>-888.9489342560917</v>
+        <v>-888.94893425609166</v>
       </c>
       <c r="C30">
-        <v>-894.5784253295806</v>
+        <v>-894.57842532958057</v>
       </c>
       <c r="D30">
         <v>-821.1964610620995</v>
       </c>
       <c r="E30">
-        <v>-888.9491185315615</v>
+        <v>-888.94911853156145</v>
       </c>
       <c r="F30">
-        <v>-658.2612130447014</v>
+        <v>-658.26121304470144</v>
       </c>
       <c r="G30">
         <v>-821.1964338991952</v>
@@ -1364,2311 +1416,2311 @@
         <v>-565.9977804267412</v>
       </c>
       <c r="J30">
-        <v>-888.9490912709841</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>-888.94909127098413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>-821.1964610261143</v>
+        <v>-821.19646102611432</v>
       </c>
       <c r="B31">
-        <v>-888.9491124690376</v>
+        <v>-888.94911246903757</v>
       </c>
       <c r="C31">
-        <v>-894.5788171057955</v>
+        <v>-894.57881710579545</v>
       </c>
       <c r="D31">
         <v>-821.1964610620995</v>
       </c>
       <c r="E31">
-        <v>-888.9491247584706</v>
+        <v>-888.94912475847059</v>
       </c>
       <c r="F31">
-        <v>-658.2612130447014</v>
+        <v>-658.26121304470144</v>
       </c>
       <c r="G31">
-        <v>-821.1964599257371</v>
+        <v>-821.19645992573714</v>
       </c>
       <c r="H31">
-        <v>-716.6649662650478</v>
+        <v>-716.66496626504784</v>
       </c>
       <c r="I31">
         <v>-565.9977804267412</v>
       </c>
       <c r="J31">
-        <v>-888.9490938643901</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>-888.94909386439008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>-821.1964610261143</v>
+        <v>-821.19646102611432</v>
       </c>
       <c r="B32">
-        <v>-888.9491124690376</v>
+        <v>-888.94911246903757</v>
       </c>
       <c r="C32">
-        <v>-894.578898827203</v>
+        <v>-894.57889882720303</v>
       </c>
       <c r="D32">
-        <v>-821.1964610657035</v>
+        <v>-821.19646106570349</v>
       </c>
       <c r="E32">
-        <v>-888.9491248827844</v>
+        <v>-888.94912488278442</v>
       </c>
       <c r="F32">
-        <v>-658.2612130447014</v>
+        <v>-658.26121304470144</v>
       </c>
       <c r="G32">
-        <v>-821.1964610473447</v>
+        <v>-821.19646104734466</v>
       </c>
       <c r="H32">
-        <v>-716.6649662650478</v>
+        <v>-716.66496626504784</v>
       </c>
       <c r="I32">
-        <v>-565.9977805293911</v>
+        <v>-565.99778052939109</v>
       </c>
       <c r="J32">
-        <v>-888.9491240406242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>-888.94912404062416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>-821.1964610261143</v>
+        <v>-821.19646102611432</v>
       </c>
       <c r="B33">
-        <v>-888.9491127143817</v>
+        <v>-888.94911271438173</v>
       </c>
       <c r="C33">
-        <v>-894.578898827203</v>
+        <v>-894.57889882720303</v>
       </c>
       <c r="D33">
-        <v>-821.1964610657035</v>
+        <v>-821.19646106570349</v>
       </c>
       <c r="E33">
-        <v>-888.9491249607925</v>
+        <v>-888.94912496079246</v>
       </c>
       <c r="F33">
-        <v>-658.2612130447014</v>
+        <v>-658.26121304470144</v>
       </c>
       <c r="G33">
-        <v>-821.1964610612166</v>
+        <v>-821.19646106121661</v>
       </c>
       <c r="H33">
-        <v>-716.6649662650478</v>
+        <v>-716.66496626504784</v>
       </c>
       <c r="I33">
-        <v>-565.9977809678123</v>
+        <v>-565.99778096781233</v>
       </c>
       <c r="J33">
-        <v>-888.9491240406242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>-888.94912404062416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>-821.1964610630885</v>
+        <v>-821.19646106308846</v>
       </c>
       <c r="B34">
-        <v>-888.9491245662934</v>
+        <v>-888.94912456629345</v>
       </c>
       <c r="C34">
-        <v>-894.578898827203</v>
+        <v>-894.57889882720303</v>
       </c>
       <c r="D34">
-        <v>-821.1964610657035</v>
+        <v>-821.19646106570349</v>
       </c>
       <c r="E34">
-        <v>-888.9491252207899</v>
+        <v>-888.94912522078994</v>
       </c>
       <c r="F34">
-        <v>-658.2612130447014</v>
+        <v>-658.26121304470144</v>
       </c>
       <c r="G34">
-        <v>-821.1964610612166</v>
+        <v>-821.19646106121661</v>
       </c>
       <c r="H34">
-        <v>-716.6649662650478</v>
+        <v>-716.66496626504784</v>
       </c>
       <c r="I34">
-        <v>-565.9977809678123</v>
+        <v>-565.99778096781233</v>
       </c>
       <c r="J34">
-        <v>-888.9491240744366</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>-888.94912407443655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>-821.1964610630885</v>
+        <v>-821.19646106308846</v>
       </c>
       <c r="B35">
-        <v>-888.9491245662934</v>
+        <v>-888.94912456629345</v>
       </c>
       <c r="C35">
-        <v>-894.578898827203</v>
+        <v>-894.57889882720303</v>
       </c>
       <c r="D35">
-        <v>-821.1964610657035</v>
+        <v>-821.19646106570349</v>
       </c>
       <c r="E35">
-        <v>-888.9491252207899</v>
+        <v>-888.94912522078994</v>
       </c>
       <c r="F35">
-        <v>-658.2612130447014</v>
+        <v>-658.26121304470144</v>
       </c>
       <c r="G35">
-        <v>-821.1964610612166</v>
+        <v>-821.19646106121661</v>
       </c>
       <c r="H35">
-        <v>-716.6687742641591</v>
+        <v>-716.66877426415908</v>
       </c>
       <c r="I35">
-        <v>-565.9977809678123</v>
+        <v>-565.99778096781233</v>
       </c>
       <c r="J35">
-        <v>-888.9491243788229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>-888.94912437882294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>-821.1964610630885</v>
+        <v>-821.19646106308846</v>
       </c>
       <c r="B36">
-        <v>-888.9491245662934</v>
+        <v>-888.94912456629345</v>
       </c>
       <c r="C36">
-        <v>-894.5788990676085</v>
+        <v>-894.57889906760852</v>
       </c>
       <c r="D36">
-        <v>-821.1964610662492</v>
+        <v>-821.19646106624919</v>
       </c>
       <c r="E36">
-        <v>-888.9491252602807</v>
+        <v>-888.94912526028065</v>
       </c>
       <c r="F36">
-        <v>-658.2612130447014</v>
+        <v>-658.26121304470144</v>
       </c>
       <c r="G36">
-        <v>-821.1964610612166</v>
+        <v>-821.19646106121661</v>
       </c>
       <c r="H36">
-        <v>-716.670658097137</v>
+        <v>-716.67065809713699</v>
       </c>
       <c r="I36">
-        <v>-565.9977809678123</v>
+        <v>-565.99778096781233</v>
       </c>
       <c r="J36">
-        <v>-888.9491249855417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>-888.94912498554174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>-821.1964610661615</v>
+        <v>-821.19646106616153</v>
       </c>
       <c r="B37">
-        <v>-888.9491245662934</v>
+        <v>-888.94912456629345</v>
       </c>
       <c r="C37">
-        <v>-894.57890002222</v>
+        <v>-894.57890002221995</v>
       </c>
       <c r="D37">
-        <v>-821.1964610662492</v>
+        <v>-821.19646106624919</v>
       </c>
       <c r="E37">
-        <v>-888.9491252602807</v>
+        <v>-888.94912526028065</v>
       </c>
       <c r="F37">
-        <v>-658.2612130447015</v>
+        <v>-658.26121304470155</v>
       </c>
       <c r="G37">
-        <v>-821.1964610612166</v>
+        <v>-821.19646106121661</v>
       </c>
       <c r="H37">
-        <v>-716.6713152705067</v>
+        <v>-716.67131527050674</v>
       </c>
       <c r="I37">
-        <v>-565.9977809702116</v>
+        <v>-565.99778097021158</v>
       </c>
       <c r="J37">
-        <v>-888.9491250654332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>-888.94912506543324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>-821.1964610661615</v>
+        <v>-821.19646106616153</v>
       </c>
       <c r="B38">
-        <v>-888.9491245662934</v>
+        <v>-888.94912456629345</v>
       </c>
       <c r="C38">
-        <v>-894.5789002304592</v>
+        <v>-894.57890023045923</v>
       </c>
       <c r="D38">
-        <v>-821.1964610662492</v>
+        <v>-821.19646106624919</v>
       </c>
       <c r="E38">
-        <v>-888.9491252642617</v>
+        <v>-888.94912526426174</v>
       </c>
       <c r="F38">
-        <v>-658.2612130447015</v>
+        <v>-658.26121304470155</v>
       </c>
       <c r="G38">
-        <v>-821.1964610612166</v>
+        <v>-821.19646106121661</v>
       </c>
       <c r="H38">
-        <v>-716.6713959395565</v>
+        <v>-716.67139593955653</v>
       </c>
       <c r="I38">
-        <v>-565.9977809705506</v>
+        <v>-565.99778097055059</v>
       </c>
       <c r="J38">
-        <v>-888.9491251446497</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>-888.94912514464966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>-821.1964610663117</v>
+        <v>-821.19646106631171</v>
       </c>
       <c r="B39">
-        <v>-888.9491251326974</v>
+        <v>-888.94912513269742</v>
       </c>
       <c r="C39">
-        <v>-894.5789003088223</v>
+        <v>-894.57890030882231</v>
       </c>
       <c r="D39">
-        <v>-821.1964610663001</v>
+        <v>-821.19646106630012</v>
       </c>
       <c r="E39">
-        <v>-888.9491252642617</v>
+        <v>-888.94912526426174</v>
       </c>
       <c r="F39">
-        <v>-658.2612130447015</v>
+        <v>-658.26121304470155</v>
       </c>
       <c r="G39">
-        <v>-821.1964610635712</v>
+        <v>-821.19646106357118</v>
       </c>
       <c r="H39">
-        <v>-716.6714958794059</v>
+        <v>-716.67149587940594</v>
       </c>
       <c r="I39">
-        <v>-565.9977809705506</v>
+        <v>-565.99778097055059</v>
       </c>
       <c r="J39">
-        <v>-888.9491251446497</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>-888.94912514464966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>-821.1964610663117</v>
+        <v>-821.19646106631171</v>
       </c>
       <c r="B40">
-        <v>-888.9491251326974</v>
+        <v>-888.94912513269742</v>
       </c>
       <c r="C40">
         <v>-894.5789003241598</v>
       </c>
       <c r="D40">
-        <v>-821.1964610663001</v>
+        <v>-821.19646106630012</v>
       </c>
       <c r="E40">
-        <v>-888.9491252692724</v>
+        <v>-888.94912526927237</v>
       </c>
       <c r="F40">
-        <v>-658.2612130447015</v>
+        <v>-658.26121304470155</v>
       </c>
       <c r="G40">
-        <v>-821.1964610635712</v>
+        <v>-821.19646106357118</v>
       </c>
       <c r="H40">
-        <v>-716.6714989879883</v>
+        <v>-716.67149898798834</v>
       </c>
       <c r="I40">
-        <v>-565.9977809705506</v>
+        <v>-565.99778097055059</v>
       </c>
       <c r="J40">
-        <v>-888.9491251680479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>-888.94912516804789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>-821.1964610663117</v>
+        <v>-821.19646106631171</v>
       </c>
       <c r="B41">
-        <v>-888.9491251326974</v>
+        <v>-888.94912513269742</v>
       </c>
       <c r="C41">
-        <v>-894.578900351253</v>
+        <v>-894.57890035125297</v>
       </c>
       <c r="D41">
-        <v>-821.1964610663001</v>
+        <v>-821.19646106630012</v>
       </c>
       <c r="E41">
-        <v>-888.9491252692724</v>
+        <v>-888.94912526927237</v>
       </c>
       <c r="F41">
-        <v>-658.2612130447015</v>
+        <v>-658.26121304470155</v>
       </c>
       <c r="G41">
-        <v>-821.1964610635712</v>
+        <v>-821.19646106357118</v>
       </c>
       <c r="H41">
-        <v>-716.6714989879883</v>
+        <v>-716.67149898798834</v>
       </c>
       <c r="I41">
-        <v>-565.9977809705506</v>
+        <v>-565.99778097055059</v>
       </c>
       <c r="J41">
-        <v>-888.9491251817028</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>-888.94912518170281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>-821.1964610663117</v>
+        <v>-821.19646106631171</v>
       </c>
       <c r="B42">
         <v>-888.9491252022367</v>
       </c>
       <c r="C42">
-        <v>-894.5789003690023</v>
+        <v>-894.57890036900233</v>
       </c>
       <c r="D42">
-        <v>-821.1964610663092</v>
+        <v>-821.19646106630921</v>
       </c>
       <c r="E42">
-        <v>-888.9491252694879</v>
+        <v>-888.94912526948792</v>
       </c>
       <c r="F42">
-        <v>-658.2612130447015</v>
+        <v>-658.26121304470155</v>
       </c>
       <c r="G42">
-        <v>-821.1964610635712</v>
+        <v>-821.19646106357118</v>
       </c>
       <c r="H42">
-        <v>-716.6714989879883</v>
+        <v>-716.67149898798834</v>
       </c>
       <c r="I42">
-        <v>-565.9977809705885</v>
+        <v>-565.99778097058845</v>
       </c>
       <c r="J42">
-        <v>-888.949125217544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>-888.94912521754395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>-821.1964610663117</v>
+        <v>-821.19646106631171</v>
       </c>
       <c r="B43">
-        <v>-888.9491252324447</v>
+        <v>-888.94912523244466</v>
       </c>
       <c r="C43">
-        <v>-894.5789003859197</v>
+        <v>-894.57890038591972</v>
       </c>
       <c r="D43">
-        <v>-821.1964610663131</v>
+        <v>-821.19646106631308</v>
       </c>
       <c r="E43">
-        <v>-888.9491252694879</v>
+        <v>-888.94912526948792</v>
       </c>
       <c r="F43">
-        <v>-658.2612130447047</v>
+        <v>-658.26121304470473</v>
       </c>
       <c r="G43">
-        <v>-821.1964610635712</v>
+        <v>-821.19646106357118</v>
       </c>
       <c r="H43">
-        <v>-716.6714994460626</v>
+        <v>-716.67149944606263</v>
       </c>
       <c r="I43">
-        <v>-565.997780970606</v>
+        <v>-565.99778097060596</v>
       </c>
       <c r="J43">
-        <v>-888.9491252684966</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>-888.94912526849657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>-821.196461066313</v>
+        <v>-821.19646106631296</v>
       </c>
       <c r="B44">
-        <v>-888.9491252340042</v>
+        <v>-888.94912523400421</v>
       </c>
       <c r="C44">
-        <v>-894.5789003869514</v>
+        <v>-894.57890038695143</v>
       </c>
       <c r="D44">
-        <v>-821.1964610663135</v>
+        <v>-821.19646106631353</v>
       </c>
       <c r="E44">
-        <v>-888.9491252696401</v>
+        <v>-888.94912526964015</v>
       </c>
       <c r="F44">
-        <v>-658.2612130447047</v>
+        <v>-658.26121304470473</v>
       </c>
       <c r="G44">
-        <v>-821.1964610635712</v>
+        <v>-821.19646106357118</v>
       </c>
       <c r="H44">
-        <v>-716.6714995791858</v>
+        <v>-716.67149957918582</v>
       </c>
       <c r="I44">
-        <v>-565.9977809709895</v>
+        <v>-565.99778097098954</v>
       </c>
       <c r="J44">
-        <v>-888.9491252697107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>-888.94912526971075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="B45">
-        <v>-888.9491252606094</v>
+        <v>-888.94912526060943</v>
       </c>
       <c r="C45">
-        <v>-894.5789003869514</v>
+        <v>-894.57890038695143</v>
       </c>
       <c r="D45">
-        <v>-821.1964610663139</v>
+        <v>-821.19646106631387</v>
       </c>
       <c r="E45">
-        <v>-888.9491252696401</v>
+        <v>-888.94912526964015</v>
       </c>
       <c r="F45">
-        <v>-658.2612130447047</v>
+        <v>-658.26121304470473</v>
       </c>
       <c r="G45">
-        <v>-821.1964610656034</v>
+        <v>-821.19646106560344</v>
       </c>
       <c r="H45">
         <v>-716.6714996162375</v>
       </c>
       <c r="I45">
-        <v>-565.9977809709895</v>
+        <v>-565.99778097098954</v>
       </c>
       <c r="J45">
-        <v>-888.9491252697107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>-888.94912526971075</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="B46">
-        <v>-888.9491252693408</v>
+        <v>-888.94912526934081</v>
       </c>
       <c r="C46">
-        <v>-894.5789003869514</v>
+        <v>-894.57890038695143</v>
       </c>
       <c r="D46">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="E46">
-        <v>-888.9491252696401</v>
+        <v>-888.94912526964015</v>
       </c>
       <c r="F46">
-        <v>-658.2612130447047</v>
+        <v>-658.26121304470473</v>
       </c>
       <c r="G46">
-        <v>-821.1964610662632</v>
+        <v>-821.19646106626317</v>
       </c>
       <c r="H46">
-        <v>-716.6714997826549</v>
+        <v>-716.67149978265491</v>
       </c>
       <c r="I46">
-        <v>-565.997780970992</v>
+        <v>-565.99778097099204</v>
       </c>
       <c r="J46">
-        <v>-888.9491252697107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>-888.94912526971075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="B47">
-        <v>-888.9491252693408</v>
+        <v>-888.94912526934081</v>
       </c>
       <c r="C47">
-        <v>-894.5789003896821</v>
+        <v>-894.57890038968208</v>
       </c>
       <c r="D47">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="E47">
-        <v>-888.9491252697374</v>
+        <v>-888.94912526973735</v>
       </c>
       <c r="F47">
-        <v>-658.2612130447047</v>
+        <v>-658.26121304470473</v>
       </c>
       <c r="G47">
-        <v>-821.1964610663138</v>
+        <v>-821.19646106631376</v>
       </c>
       <c r="H47">
-        <v>-716.6714998788809</v>
+        <v>-716.67149987888092</v>
       </c>
       <c r="I47">
-        <v>-565.997780970992</v>
+        <v>-565.99778097099204</v>
       </c>
       <c r="J47">
-        <v>-888.9491252697107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>-888.94912526971075</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="B48">
-        <v>-888.9491252697223</v>
+        <v>-888.94912526972234</v>
       </c>
       <c r="C48">
-        <v>-894.5789003904981</v>
+        <v>-894.57890039049812</v>
       </c>
       <c r="D48">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="E48">
-        <v>-888.9491252697728</v>
+        <v>-888.94912526977282</v>
       </c>
       <c r="F48">
-        <v>-658.2612130447047</v>
+        <v>-658.26121304470473</v>
       </c>
       <c r="G48">
-        <v>-821.1964610663138</v>
+        <v>-821.19646106631376</v>
       </c>
       <c r="H48">
-        <v>-716.6714999263975</v>
+        <v>-716.67149992639747</v>
       </c>
       <c r="I48">
-        <v>-565.9977809710049</v>
+        <v>-565.99778097100489</v>
       </c>
       <c r="J48">
-        <v>-888.9491252698907</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>-888.94912526989071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="B49">
-        <v>-888.9491252697223</v>
+        <v>-888.94912526972234</v>
       </c>
       <c r="C49">
-        <v>-894.5789003905709</v>
+        <v>-894.57890039057088</v>
       </c>
       <c r="D49">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="E49">
         <v>-888.9491252697876</v>
       </c>
       <c r="F49">
-        <v>-658.2612130447047</v>
+        <v>-658.26121304470473</v>
       </c>
       <c r="G49">
-        <v>-821.1964610663138</v>
+        <v>-821.19646106631376</v>
       </c>
       <c r="H49">
-        <v>-716.6715003321083</v>
+        <v>-716.67150033210828</v>
       </c>
       <c r="I49">
-        <v>-565.9977809710111</v>
+        <v>-565.99778097101114</v>
       </c>
       <c r="J49">
-        <v>-888.9491252698907</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>-888.94912526989071</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="B50">
-        <v>-888.9491252698903</v>
+        <v>-888.94912526989026</v>
       </c>
       <c r="C50">
-        <v>-894.5789003905971</v>
+        <v>-894.57890039059714</v>
       </c>
       <c r="D50">
         <v>-821.1964610663141</v>
       </c>
       <c r="E50">
-        <v>-888.9491252698751</v>
+        <v>-888.94912526987514</v>
       </c>
       <c r="F50">
-        <v>-658.2612130447048</v>
+        <v>-658.26121304470485</v>
       </c>
       <c r="G50">
-        <v>-821.1964610663139</v>
+        <v>-821.19646106631387</v>
       </c>
       <c r="H50">
-        <v>-716.6715003321083</v>
+        <v>-716.67150033210828</v>
       </c>
       <c r="I50">
-        <v>-565.9977809710116</v>
+        <v>-565.99778097101159</v>
       </c>
       <c r="J50">
-        <v>-888.9491252698907</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>-888.94912526989071</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="B51">
-        <v>-888.9491252698919</v>
+        <v>-888.94912526989185</v>
       </c>
       <c r="C51">
-        <v>-894.5789003905971</v>
+        <v>-894.57890039059714</v>
       </c>
       <c r="D51">
         <v>-821.1964610663141</v>
       </c>
       <c r="E51">
-        <v>-888.9491252698795</v>
+        <v>-888.94912526987946</v>
       </c>
       <c r="F51">
-        <v>-658.2612130447048</v>
+        <v>-658.26121304470485</v>
       </c>
       <c r="G51">
-        <v>-821.1964610663139</v>
+        <v>-821.19646106631387</v>
       </c>
       <c r="H51">
-        <v>-716.6715003409802</v>
+        <v>-716.67150034098017</v>
       </c>
       <c r="I51">
-        <v>-565.9977809710116</v>
+        <v>-565.99778097101159</v>
       </c>
       <c r="J51">
-        <v>-888.9491252698907</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>-888.94912526989071</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="B52">
-        <v>-907.5974930479881</v>
+        <v>-907.59749304798811</v>
       </c>
       <c r="C52">
-        <v>-894.5789003905971</v>
+        <v>-894.57890039059714</v>
       </c>
       <c r="D52">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="E52">
-        <v>-888.9491252698808</v>
+        <v>-888.94912526988082</v>
       </c>
       <c r="F52">
-        <v>-658.2612130447052</v>
+        <v>-658.26121304470519</v>
       </c>
       <c r="G52">
-        <v>-821.1964610663139</v>
+        <v>-821.19646106631387</v>
       </c>
       <c r="H52">
-        <v>-716.6715003409802</v>
+        <v>-716.67150034098017</v>
       </c>
       <c r="I52">
-        <v>-565.9977809710116</v>
+        <v>-565.99778097101159</v>
       </c>
       <c r="J52">
-        <v>-888.9491252698907</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>-888.94912526989071</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>-821.196461066314</v>
+        <v>-821.19646106631399</v>
       </c>
       <c r="B53">
-        <v>-920.090273811507</v>
+        <v>-920.09027381150702</v>
       </c>
       <c r="C53">
-        <v>-894.5789003905992</v>
+        <v>-894.57890039059919</v>
       </c>
       <c r="D53">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="E53">
-        <v>-888.9491252698897</v>
+        <v>-888.94912526988969</v>
       </c>
       <c r="F53">
         <v>-658.2612130447053</v>
       </c>
       <c r="G53">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="H53">
-        <v>-716.6715003413017</v>
+        <v>-716.67150034130168</v>
       </c>
       <c r="I53">
-        <v>-565.9977809710119</v>
+        <v>-565.99778097101193</v>
       </c>
       <c r="J53">
-        <v>-888.9491252698907</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>-888.94912526989071</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B54">
-        <v>-920.090273811507</v>
+        <v>-920.09027381150702</v>
       </c>
       <c r="C54">
-        <v>-894.5789003905996</v>
+        <v>-894.57890039059964</v>
       </c>
       <c r="D54">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="E54">
-        <v>-888.9491252698897</v>
+        <v>-888.94912526988969</v>
       </c>
       <c r="F54">
         <v>-658.2612130447053</v>
       </c>
       <c r="G54">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="H54">
-        <v>-716.6715003416886</v>
+        <v>-716.67150034168856</v>
       </c>
       <c r="I54">
-        <v>-565.9977809710119</v>
+        <v>-565.99778097101193</v>
       </c>
       <c r="J54">
-        <v>-888.9491252698913</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>-888.94912526989128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B55">
-        <v>-920.090273811507</v>
+        <v>-920.09027381150702</v>
       </c>
       <c r="C55">
-        <v>-894.5789003905996</v>
+        <v>-894.57890039059964</v>
       </c>
       <c r="D55">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="E55">
-        <v>-888.9491252698911</v>
+        <v>-888.94912526989106</v>
       </c>
       <c r="F55">
         <v>-658.2612130447053</v>
       </c>
       <c r="G55">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="H55">
-        <v>-716.6715003419217</v>
+        <v>-716.67150034192173</v>
       </c>
       <c r="I55">
-        <v>-565.9977809710119</v>
+        <v>-565.99778097101193</v>
       </c>
       <c r="J55">
-        <v>-888.9491252698913</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>-888.94912526989128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B56">
-        <v>-931.0566841851282</v>
+        <v>-931.05668418512823</v>
       </c>
       <c r="C56">
-        <v>-894.5789003905996</v>
+        <v>-894.57890039059964</v>
       </c>
       <c r="D56">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="E56">
-        <v>-888.9491252698916</v>
+        <v>-888.94912526989162</v>
       </c>
       <c r="F56">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G56">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="H56">
-        <v>-716.6715003419217</v>
+        <v>-716.67150034192173</v>
       </c>
       <c r="I56">
-        <v>-565.9977809710119</v>
+        <v>-565.99778097101193</v>
       </c>
       <c r="J56">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B57">
-        <v>-931.0566841851282</v>
+        <v>-931.05668418512823</v>
       </c>
       <c r="C57">
-        <v>-894.5789003905998</v>
+        <v>-894.57890039059976</v>
       </c>
       <c r="D57">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="E57">
-        <v>-888.9491252698916</v>
+        <v>-888.94912526989162</v>
       </c>
       <c r="F57">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G57">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="H57">
-        <v>-716.6715003419281</v>
+        <v>-716.67150034192809</v>
       </c>
       <c r="I57">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J57">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B58">
-        <v>-931.0566841851282</v>
+        <v>-931.05668418512823</v>
       </c>
       <c r="C58">
-        <v>-894.5789003905998</v>
+        <v>-894.57890039059976</v>
       </c>
       <c r="D58">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E58">
-        <v>-888.9491252698916</v>
+        <v>-888.94912526989162</v>
       </c>
       <c r="F58">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G58">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="H58">
-        <v>-716.6715003419317</v>
+        <v>-716.67150034193173</v>
       </c>
       <c r="I58">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J58">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B59">
-        <v>-933.8972541565024</v>
+        <v>-933.89725415650241</v>
       </c>
       <c r="C59">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D59">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E59">
-        <v>-888.9491252698916</v>
+        <v>-888.94912526989162</v>
       </c>
       <c r="F59">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G59">
-        <v>-821.1964610663142</v>
+        <v>-821.19646106631421</v>
       </c>
       <c r="H59">
-        <v>-716.6715003419383</v>
+        <v>-716.67150034193833</v>
       </c>
       <c r="I59">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J59">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B60">
-        <v>-935.0599308948737</v>
+        <v>-935.05993089487367</v>
       </c>
       <c r="C60">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D60">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E60">
-        <v>-888.9491252698916</v>
+        <v>-888.94912526989162</v>
       </c>
       <c r="F60">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G60">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H60">
-        <v>-716.6715003419405</v>
+        <v>-716.67150034194049</v>
       </c>
       <c r="I60">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J60">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B61">
-        <v>-935.113064549918</v>
+        <v>-935.11306454991802</v>
       </c>
       <c r="C61">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D61">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E61">
-        <v>-888.9491252698917</v>
+        <v>-888.94912526989174</v>
       </c>
       <c r="F61">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G61">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H61">
-        <v>-716.6715003419405</v>
+        <v>-716.67150034194049</v>
       </c>
       <c r="I61">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J61">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B62">
-        <v>-935.113064549918</v>
+        <v>-935.11306454991802</v>
       </c>
       <c r="C62">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D62">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E62">
-        <v>-888.9491252698917</v>
+        <v>-888.94912526989174</v>
       </c>
       <c r="F62">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G62">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H62">
-        <v>-716.6715003419405</v>
+        <v>-716.67150034194049</v>
       </c>
       <c r="I62">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J62">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B63">
-        <v>-935.113064549918</v>
+        <v>-935.11306454991802</v>
       </c>
       <c r="C63">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D63">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E63">
-        <v>-888.9491252698917</v>
+        <v>-888.94912526989174</v>
       </c>
       <c r="F63">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G63">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H63">
-        <v>-716.6715003419405</v>
+        <v>-716.67150034194049</v>
       </c>
       <c r="I63">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J63">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B64">
-        <v>-935.113064549918</v>
+        <v>-935.11306454991802</v>
       </c>
       <c r="C64">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D64">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E64">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F64">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G64">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H64">
-        <v>-716.6715003419413</v>
+        <v>-716.67150034194128</v>
       </c>
       <c r="I64">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J64">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B65">
-        <v>-935.1134327053246</v>
+        <v>-935.11343270532461</v>
       </c>
       <c r="C65">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D65">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E65">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F65">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G65">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H65">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I65">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J65">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B66">
-        <v>-935.1134327053246</v>
+        <v>-935.11343270532461</v>
       </c>
       <c r="C66">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D66">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E66">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F66">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G66">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H66">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I66">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J66">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B67">
-        <v>-935.1141868020574</v>
+        <v>-935.11418680205736</v>
       </c>
       <c r="C67">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D67">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E67">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F67">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G67">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H67">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I67">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J67">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B68">
-        <v>-935.2387868890312</v>
+        <v>-935.23878688903119</v>
       </c>
       <c r="C68">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D68">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E68">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F68">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G68">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H68">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I68">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J68">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B69">
-        <v>-935.2387868890312</v>
+        <v>-935.23878688903119</v>
       </c>
       <c r="C69">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D69">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E69">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F69">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G69">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H69">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I69">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J69">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B70">
-        <v>-935.2387868890312</v>
+        <v>-935.23878688903119</v>
       </c>
       <c r="C70">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D70">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E70">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F70">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G70">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H70">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I70">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J70">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B71">
-        <v>-935.2505876631394</v>
+        <v>-935.25058766313941</v>
       </c>
       <c r="C71">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D71">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E71">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F71">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G71">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H71">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I71">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J71">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B72">
-        <v>-935.2595951396625</v>
+        <v>-935.25959513966245</v>
       </c>
       <c r="C72">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D72">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E72">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F72">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G72">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H72">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I72">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J72">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B73">
-        <v>-935.2617029096941</v>
+        <v>-935.26170290969412</v>
       </c>
       <c r="C73">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D73">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E73">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F73">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G73">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H73">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I73">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J73">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B74">
-        <v>-935.2635732072758</v>
+        <v>-935.26357320727584</v>
       </c>
       <c r="C74">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D74">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E74">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F74">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G74">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H74">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I74">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J74">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B75">
-        <v>-935.2658889099271</v>
+        <v>-935.26588890992707</v>
       </c>
       <c r="C75">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D75">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E75">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F75">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G75">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H75">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I75">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J75">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B76">
-        <v>-935.266323252614</v>
+        <v>-935.26632325261403</v>
       </c>
       <c r="C76">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D76">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E76">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F76">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G76">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H76">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I76">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J76">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B77">
-        <v>-935.2664225029146</v>
+        <v>-935.26642250291457</v>
       </c>
       <c r="C77">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D77">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E77">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F77">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G77">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H77">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I77">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J77">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B78">
-        <v>-935.2666066764643</v>
+        <v>-935.26660667646433</v>
       </c>
       <c r="C78">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D78">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E78">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F78">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G78">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H78">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I78">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J78">
-        <v>-888.949125269892</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>-888.94912526989197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B79">
-        <v>-935.267013688087</v>
+        <v>-935.26701368808699</v>
       </c>
       <c r="C79">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D79">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E79">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F79">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G79">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H79">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I79">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J79">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B80">
-        <v>-935.267114570276</v>
+        <v>-935.26711457027602</v>
       </c>
       <c r="C80">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D80">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E80">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F80">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G80">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H80">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I80">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J80">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B81">
-        <v>-935.2672133701051</v>
+        <v>-935.26721337010508</v>
       </c>
       <c r="C81">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D81">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E81">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F81">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G81">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H81">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I81">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J81">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B82">
-        <v>-935.2672715922311</v>
+        <v>-935.26727159223105</v>
       </c>
       <c r="C82">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D82">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E82">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F82">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G82">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H82">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I82">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J82">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B83">
-        <v>-935.2808919719595</v>
+        <v>-935.28089197195948</v>
       </c>
       <c r="C83">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D83">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E83">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F83">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G83">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H83">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I83">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J83">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B84">
-        <v>-935.2878112402366</v>
+        <v>-935.28781124023658</v>
       </c>
       <c r="C84">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D84">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E84">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F84">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G84">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H84">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I84">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J84">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B85">
         <v>-935.3152634121044</v>
       </c>
       <c r="C85">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D85">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E85">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F85">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G85">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H85">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I85">
-        <v>-565.997780971012</v>
+        <v>-565.99778097101205</v>
       </c>
       <c r="J85">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B86">
-        <v>-935.33747049126</v>
+        <v>-935.33747049125998</v>
       </c>
       <c r="C86">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D86">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E86">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F86">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G86">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H86">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I86">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J86">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B87">
-        <v>-935.3378789201777</v>
+        <v>-935.33787892017767</v>
       </c>
       <c r="C87">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D87">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E87">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F87">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G87">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H87">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I87">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J87">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B88">
-        <v>-935.3378789201777</v>
+        <v>-935.33787892017767</v>
       </c>
       <c r="C88">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D88">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E88">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F88">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G88">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H88">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I88">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J88">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B89">
         <v>-935.3378807161746</v>
       </c>
       <c r="C89">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D89">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E89">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F89">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G89">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H89">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I89">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J89">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B90">
-        <v>-935.3379002957367</v>
+        <v>-935.33790029573674</v>
       </c>
       <c r="C90">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D90">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E90">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F90">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G90">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H90">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I90">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J90">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B91">
-        <v>-935.3379040985203</v>
+        <v>-935.33790409852031</v>
       </c>
       <c r="C91">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D91">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E91">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F91">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G91">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="H91">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I91">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J91">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B92">
-        <v>-935.3379374371734</v>
+        <v>-935.33793743717342</v>
       </c>
       <c r="C92">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D92">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E92">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F92">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G92">
-        <v>-867.2778952305516</v>
+        <v>-867.27789523055162</v>
       </c>
       <c r="H92">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I92">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J92">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B93">
-        <v>-935.3379398579643</v>
+        <v>-935.33793985796433</v>
       </c>
       <c r="C93">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D93">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E93">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F93">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G93">
-        <v>-867.2778952305516</v>
+        <v>-867.27789523055162</v>
       </c>
       <c r="H93">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I93">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J93">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B94">
-        <v>-935.3379489220163</v>
+        <v>-935.33794892201627</v>
       </c>
       <c r="C94">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D94">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E94">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F94">
-        <v>-658.2612130447056</v>
+        <v>-658.26121304470564</v>
       </c>
       <c r="G94">
-        <v>-867.2778952305516</v>
+        <v>-867.27789523055162</v>
       </c>
       <c r="H94">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I94">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J94">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B95">
-        <v>-935.3379504326006</v>
+        <v>-935.33795043260056</v>
       </c>
       <c r="C95">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D95">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E95">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F95">
-        <v>-658.2612130447058</v>
+        <v>-658.26121304470576</v>
       </c>
       <c r="G95">
-        <v>-867.2778952305516</v>
+        <v>-867.27789523055162</v>
       </c>
       <c r="H95">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I95">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J95">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B96">
-        <v>-935.3379506532683</v>
+        <v>-935.33795065326831</v>
       </c>
       <c r="C96">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D96">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E96">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F96">
-        <v>-658.2612130447058</v>
+        <v>-658.26121304470576</v>
       </c>
       <c r="G96">
-        <v>-873.703166247055</v>
+        <v>-873.70316624705504</v>
       </c>
       <c r="H96">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I96">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J96">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B97">
-        <v>-935.3379512401056</v>
+        <v>-935.33795124010555</v>
       </c>
       <c r="C97">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D97">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E97">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F97">
-        <v>-658.2612130447058</v>
+        <v>-658.26121304470576</v>
       </c>
       <c r="G97">
-        <v>-876.4093040171413</v>
+        <v>-876.40930401714127</v>
       </c>
       <c r="H97">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I97">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J97">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B98">
-        <v>-935.3379513915686</v>
+        <v>-935.33795139156859</v>
       </c>
       <c r="C98">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D98">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E98">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F98">
-        <v>-658.2612130447058</v>
+        <v>-658.26121304470576</v>
       </c>
       <c r="G98">
-        <v>-876.8169499460773</v>
+        <v>-876.81694994607733</v>
       </c>
       <c r="H98">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I98">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J98">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B99">
-        <v>-935.337951433896</v>
+        <v>-935.33795143389602</v>
       </c>
       <c r="C99">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D99">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E99">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F99">
-        <v>-658.2612130447058</v>
+        <v>-658.26121304470576</v>
       </c>
       <c r="G99">
-        <v>-876.8934702754351</v>
+        <v>-876.89347027543511</v>
       </c>
       <c r="H99">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I99">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J99">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B100">
-        <v>-935.3379515184521</v>
+        <v>-935.33795151845209</v>
       </c>
       <c r="C100">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D100">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E100">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F100">
-        <v>-658.2612130447058</v>
+        <v>-658.26121304470576</v>
       </c>
       <c r="G100">
-        <v>-876.9086542961564</v>
+        <v>-876.90865429615644</v>
       </c>
       <c r="H100">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I100">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J100">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B101">
-        <v>-935.3379515294133</v>
+        <v>-935.33795152941332</v>
       </c>
       <c r="C101">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D101">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E101">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F101">
-        <v>-658.2612130447058</v>
+        <v>-658.26121304470576</v>
       </c>
       <c r="G101">
-        <v>-876.9117029702063</v>
+        <v>-876.91170297020631</v>
       </c>
       <c r="H101">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I101">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J101">
-        <v>-888.9491252698921</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>-888.94912526989208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="B102">
-        <v>-935.3379515467925</v>
+        <v>-935.33795154679251</v>
       </c>
       <c r="C102">
-        <v>-894.5789003906</v>
+        <v>-894.57890039059998</v>
       </c>
       <c r="D102">
-        <v>-821.1964610663144</v>
+        <v>-821.19646106631444</v>
       </c>
       <c r="E102">
-        <v>-888.949125269892</v>
+        <v>-888.94912526989197</v>
       </c>
       <c r="F102">
-        <v>-658.2612130447058</v>
+        <v>-658.26121304470576</v>
       </c>
       <c r="G102">
-        <v>-876.9123165573336</v>
+        <v>-876.91231655733361</v>
       </c>
       <c r="H102">
-        <v>-716.6715003419415</v>
+        <v>-716.67150034194151</v>
       </c>
       <c r="I102">
-        <v>-565.9977809710122</v>
+        <v>-565.99778097101216</v>
       </c>
       <c r="J102">
-        <v>-888.9491252698921</v>
+        <v>-888.94912526989208</v>
       </c>
     </row>
   </sheetData>
